--- a/TestScriptWeb/Data/DataExcel/LoginKH.xlsx
+++ b/TestScriptWeb/Data/DataExcel/LoginKH.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1 BDCLPM\ExcelFỏUnitTesting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1 BDCLPM\TestScriptWeb\TestScriptWeb\Data\DataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C504AE-8E06-44DA-9980-5F57D0F50BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EFA231-B432-47E8-86F5-4DEF1B60188B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0970A27-C508-4DA6-A2D9-CBFBFCB50415}"/>
   </bookViews>
@@ -34,26 +34,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>phuoc</t>
   </si>
   <si>
-    <t>123phuoc</t>
+    <t>phuoc1</t>
   </si>
   <si>
-    <t>phuoc123</t>
+    <t>Username</t>
   </si>
   <si>
-    <t>phuoc1</t>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -69,7 +77,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -77,13 +85,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -400,66 +429,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68737FA8-CADC-427E-B323-D5070418A107}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.90625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" style="3" customWidth="1"/>
     <col min="3" max="3" width="25.1796875" style="1" customWidth="1"/>
     <col min="4" max="6" width="8.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="90.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="1">
-        <v>12345678</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>12345678</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>12345678</v>
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>12345677</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="1">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
         <v>12345678</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
+      <c r="B5" s="3">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d7ed70eb-0c61-4646-b7b1-a8b68591666b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -666,17 +703,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d7ed70eb-0c61-4646-b7b1-a8b68591666b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D43FDB9C-4F56-4480-9975-93939D132AA4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EB4C59C-5811-4754-9D54-7F1C0CF28861}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a62c9d76-3733-4eb5-9282-9be5bfdc8a65"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="d7ed70eb-0c61-4646-b7b1-a8b68591666b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -701,18 +748,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EB4C59C-5811-4754-9D54-7F1C0CF28861}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D43FDB9C-4F56-4480-9975-93939D132AA4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a62c9d76-3733-4eb5-9282-9be5bfdc8a65"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="d7ed70eb-0c61-4646-b7b1-a8b68591666b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>